--- a/高考全国院校投档线-文件转换_数据清洗/陕西/2024年陕西省本科一批投档情况统计表.xlsx
+++ b/高考全国院校投档线-文件转换_数据清洗/陕西/2024年陕西省本科一批投档情况统计表.xlsx
@@ -1458,7 +1458,7 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="表样式 1" pivot="0" count="0"/>
-    <tableStyle name="表样式 2" pivot="0" count="1"/>
+    <tableStyle name="表样式 2" pivot="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1472,11 +1472,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A1:P548" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A1:P548" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:P548">
     <filterColumn colId="8">
       <filters>
-        <filter val="湖南"/>
+        <filter val="陕西"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1484,22 +1484,22 @@
     <sortCondition ref="G1:G548"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="2" name="科类" dataDxfId="17"/>
-    <tableColumn id="16" name="院校代号" dataDxfId="16"/>
-    <tableColumn id="4" name="院校名称" dataDxfId="15"/>
-    <tableColumn id="5" name="计划数" dataDxfId="14"/>
-    <tableColumn id="6" name="投档人数" dataDxfId="13"/>
-    <tableColumn id="7" name="最低分" dataDxfId="12"/>
-    <tableColumn id="8" name="最低位次" dataDxfId="11"/>
-    <tableColumn id="1" name="主管部门" dataDxfId="10"/>
-    <tableColumn id="3" name="省份" dataDxfId="9"/>
-    <tableColumn id="9" name="城市" dataDxfId="8"/>
-    <tableColumn id="10" name="985" dataDxfId="7"/>
-    <tableColumn id="11" name="211" dataDxfId="6"/>
-    <tableColumn id="12" name="双一流" dataDxfId="5"/>
-    <tableColumn id="13" name="类型" dataDxfId="4"/>
-    <tableColumn id="14" name="层次" dataDxfId="3"/>
-    <tableColumn id="15" name="性质" dataDxfId="2"/>
+    <tableColumn id="2" name="科类" dataDxfId="15"/>
+    <tableColumn id="16" name="院校代号" dataDxfId="14"/>
+    <tableColumn id="4" name="院校名称" dataDxfId="13"/>
+    <tableColumn id="5" name="计划数" dataDxfId="12"/>
+    <tableColumn id="6" name="投档人数" dataDxfId="11"/>
+    <tableColumn id="7" name="最低分" dataDxfId="10"/>
+    <tableColumn id="8" name="最低位次" dataDxfId="9"/>
+    <tableColumn id="1" name="主管部门" dataDxfId="8"/>
+    <tableColumn id="3" name="省份" dataDxfId="7"/>
+    <tableColumn id="9" name="城市" dataDxfId="6"/>
+    <tableColumn id="10" name="985" dataDxfId="5"/>
+    <tableColumn id="11" name="211" dataDxfId="4"/>
+    <tableColumn id="12" name="双一流" dataDxfId="3"/>
+    <tableColumn id="13" name="类型" dataDxfId="2"/>
+    <tableColumn id="14" name="层次" dataDxfId="1"/>
+    <tableColumn id="15" name="性质" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U375" sqref="U375"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="F551" sqref="F551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3486,7 +3486,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>9979</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>7</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>7</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>7</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>7</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>7</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>7</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>7</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>7</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>7</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>7</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>7</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>7</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>7</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>7</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>7</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>7</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>7</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>31409</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>7</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>7</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>7</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>7</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>7</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>7</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>7</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>7</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>7</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>7</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>7</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>7</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>7</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>7</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>7</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>7</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>7</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>7</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>7</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>7</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>7</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>7</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>7</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>7</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>7</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>7</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="447" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>7</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>7</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>7</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>7</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>7</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>7</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>7</v>
       </c>
@@ -21493,7 +21493,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>7</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>7</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>7</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>7</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>7</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>7</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>7</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>7</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>7</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>7</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>7</v>
       </c>
@@ -22555,7 +22555,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>7</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>7</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>7</v>
       </c>
@@ -23052,7 +23052,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>7</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>7</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>7</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>7</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>7</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>7</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>7</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>7</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>7</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>7</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>7</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>7</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>7</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>7</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>7</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>7</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>7</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>7</v>
       </c>
